--- a/utils/localisation_script/excel_to_json/ml/m.xlsx
+++ b/utils/localisation_script/excel_to_json/ml/m.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umair.manzoor/Projects/Open-Speech-EkStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/ml/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/ml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF05EF5-0054-F549-A312-22D8E0AD774F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEBE34D-B7C0-214C-BF7F-313EF2148753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="7760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="308">
   <si>
     <t>x</t>
   </si>
@@ -784,9 +784,6 @@
     <t>100 വാക്യങ്ങൾ സാധൂകരിക്കുന്നതിലൂടെ നിങ്ങൾ സ്വ൪ണ ഭാഷാ സമ൪ത്ഥക് ബാഡ്ജ് നേടി</t>
   </si>
   <si>
-    <t>200 വാക്യങ്ങൾ സാധൂകരിക്കുന്നതിലൂടെ നിങ്ങൾ പ്ലാറ്റിനം ഭാഷാ സമ൪ത്ഥക് ബാഡ്ജ് നേടി</t>
-  </si>
-  <si>
     <t>5 വാക്യങ്ങൾ സംഭാവന ചെയ്തുകൊണ്ട് നിങ്ങൾ വെങ്കല ഭാഷാ സമ൪ത്ഥക് ബാഡ്ജ് നേടി</t>
   </si>
   <si>
@@ -839,6 +836,114 @@
   </si>
   <si>
     <t>English copy</t>
+  </si>
+  <si>
+    <t>You are just &lt;x&gt; recordings away from earning your &lt;y&gt;  Bhasha Samarthak Badge.</t>
+  </si>
+  <si>
+    <t>നിങ്ങളുടെ &lt;y&gt; ഭാഷാ സമ൪ത്ഥക് ബാഡ്ജ് നേടുന്നതിൽ നിന്ന് നിങ്ങൾ &lt;x&gt; റെക്കോ൪ഡിംഗുകൾ മാത്രം അകലെയാണ്</t>
+  </si>
+  <si>
+    <t>Your next goal is to reach &lt;x&gt; sentences to earn your &lt;y&gt; Bhasha Samarthak Badge.</t>
+  </si>
+  <si>
+    <t>നിങ്ങളുടെ &lt;y&gt; ഭാഷാ സമ൪ത്ഥക് ബാഡ്ജ് നേടുന്നതിന് &lt;x&gt; വാക്യങ്ങളിൽ എത്തിച്ചേരുക എന്നതാണ് നിങ്ങളുടെ അടുത്ത ലക്ഷ്യം</t>
+  </si>
+  <si>
+    <t>&lt;x&gt; Bhasha Samarthak Badge earned for contributing &lt;y&gt; recordings</t>
+  </si>
+  <si>
+    <t>&lt;y&gt; റെക്കോ൪ഡിംഗുകൾ സംഭാവന ചെയ്തതിന് &lt;x&gt; ഭാഷ സമ൪ത്ഥക് ബാഡ്ജ് നേടി</t>
+  </si>
+  <si>
+    <t>You are just &lt;x&gt; sentences away from earning your &lt;y&gt; Bhasha Samarthak Badge.</t>
+  </si>
+  <si>
+    <t>നിങ്ങളുടെ &lt;y&gt; ഭാഷാ സമ൪ത്ഥക് ബാഡ്ജ് നേടുന്നതിൽ നിന്ന് നിങ്ങൾ &lt;x&gt; വാക്യങ്ങൾ മാത്രം അകലെയാണ്</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are just &lt;x&gt; images away from earning your &lt;y&gt; Bhasha Samarthak Badge. </t>
+  </si>
+  <si>
+    <t>നിങ്ങളുടെ &lt;y&gt; ഭാഷാ സമ൪ത്ഥക് ബാഡ്ജ് നേടുന്നതിൽ നിന്ന് നിങ്ങൾ &lt;x&gt; ചിത്രങ്ങൾ മാത്രം അകലെയാണ്</t>
+  </si>
+  <si>
+    <t>Your next goal is to reach &lt;x&gt; recordings to earn your &lt;y&gt; Bhasha Samarthak Badge.</t>
+  </si>
+  <si>
+    <t>നിങ്ങളുടെ &lt;y&gt; ഭാഷാ സമ൪ത്ഥക് ബാഡ്ജ് നേടുന്നതിന് &lt;x&gt; റെക്കോ൪ഡിംഗുകളിൽ എത്തിച്ചേരുക എന്നതാണ് നിങ്ങളുടെ അടുത്ത ലക്ഷ്യം</t>
+  </si>
+  <si>
+    <t>Contribute &lt;x&gt; recordings to earn your &lt;y&gt; Bhasha Samarthak Badge.</t>
+  </si>
+  <si>
+    <t>നിങ്ങളുടെ &lt;y&gt; ഭാഷാ സമ൪ത്ഥക് ബാഡ്ജ് നേടാൻ &lt;x&gt; റെക്കോ൪ഡിംഗുകൾ സംഭാവന ചെയ്യുക</t>
+  </si>
+  <si>
+    <t>Validate &lt;x&gt; recordings to earn your &lt;y&gt; Bhasha Samarthak Badge.</t>
+  </si>
+  <si>
+    <t>നിങ്ങളുടെ &lt;y&gt; ഭാഷാ സമ൪ത്ഥക് ബാഡ്ജ് നേടാൻ &lt;x&gt; റെക്കോ൪ഡിംഗുകൾ സാധൂകരിക്കുക</t>
+  </si>
+  <si>
+    <t>You've earned a &lt;x&gt; Bhasha Samarthak Badge by labelling &lt;y&gt; Images.</t>
+  </si>
+  <si>
+    <t>&lt;y&gt; ചിത്രങ്ങൾ ലേബൽ ചെയ്തുകൊണ്ട് നിങ്ങൾ &lt;x&gt; ഭാഷാ സമ൪ത്ഥക് ബാഡ്ജ് നേടി</t>
+  </si>
+  <si>
+    <t>You've earned a &lt;x&gt; Bhasha Samarthak Badge by validating &lt;y&gt; Images.</t>
+  </si>
+  <si>
+    <t>&lt;y&gt; ചിത്രങ്ങൾ സാധൂകരിക്കുന്നതിലൂടെ നിങ്ങൾ &lt;x&gt; ഭാഷാ സമ൪ത്ഥക് ബാഡ്ജ് നേടി</t>
+  </si>
+  <si>
+    <t>You've earned a &lt;x&gt; Bhasha Samarthak Badge by validating &lt;y&gt; sentences.</t>
+  </si>
+  <si>
+    <t>&lt;y&gt; വാക്യങ്ങൾ സാധൂകരിക്കുന്നതിലൂടെ നിങ്ങൾ &lt;x&gt; ഭാഷാ സമ൪ത്ഥക് ബാഡ്ജ് നേടി</t>
+  </si>
+  <si>
+    <t>You've earned a &lt;x&gt; Bhasha Samarthak Badge by contributing &lt;y&gt; sentences.</t>
+  </si>
+  <si>
+    <t>&lt;y&gt; വാക്യങ്ങൾ സംഭാവന ചെയ്തുകൊണ്ട് നിങ്ങൾ &lt;x&gt; ഭാഷാ സമ൪ത്ഥക് ബാഡ്ജ് നേടി</t>
+  </si>
+  <si>
+    <t>You've earned a &lt;x&gt; Bhasha Samarthak Badge by contributing &lt;y&gt; recordings.</t>
+  </si>
+  <si>
+    <t>&lt;y&gt; റെക്കോ൪ഡിംഗുകൾ സംഭാവന ചെയ്തുകൊണ്ട് നിങ്ങൾ &lt;x&gt; ഭാഷാ സമ൪ത്ഥക് ബാഡ്ജ് നേടി</t>
+  </si>
+  <si>
+    <t>You've earned a &lt;x&gt; Bhasha Samarthak Badge by validating &lt;y&gt; recordings.</t>
+  </si>
+  <si>
+    <t>&lt;y&gt; റെക്കോ൪ഡിംഗുകൾ സാധൂകരിക്കുന്നതിലൂടെ നിങ്ങൾ &lt;x&gt; ഭാഷാ സമ൪ത്ഥക് ബാഡ്ജ് നേടി</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>വെങ്കല</t>
+  </si>
+  <si>
+    <t>വെള്ളി</t>
+  </si>
+  <si>
+    <t>സ്വ൪ണ</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>പ്ലാറ്റിനം</t>
   </si>
 </sst>
 </file>
@@ -937,7 +1042,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1002,6 +1107,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1220,10 +1332,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA988"/>
+  <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1271,13 +1383,13 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>0</v>
@@ -1777,7 +1889,7 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -2372,7 +2484,7 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -2407,7 +2519,7 @@
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -2782,27 +2894,21 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" ht="32">
+    <row r="45" spans="1:27" s="25" customFormat="1" ht="32">
       <c r="A45" s="7"/>
-      <c r="B45" s="7">
-        <v>43</v>
-      </c>
+      <c r="B45" s="7"/>
       <c r="C45" s="8" t="s">
-        <v>46</v>
+        <v>272</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
+        <v>273</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2824,20 +2930,24 @@
     <row r="46" spans="1:27" ht="32">
       <c r="A46" s="7"/>
       <c r="B46" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
+        <v>182</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2859,14 +2969,14 @@
     <row r="47" spans="1:27" ht="32">
       <c r="A47" s="7"/>
       <c r="B47" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
@@ -2894,14 +3004,14 @@
     <row r="48" spans="1:27" ht="32">
       <c r="A48" s="7"/>
       <c r="B48" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
@@ -2929,24 +3039,20 @@
     <row r="49" spans="1:27" ht="32">
       <c r="A49" s="7"/>
       <c r="B49" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
+        <v>185</v>
+      </c>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -2968,20 +3074,24 @@
     <row r="50" spans="1:27" ht="32">
       <c r="A50" s="7"/>
       <c r="B50" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
+        <v>186</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -3003,14 +3113,14 @@
     <row r="51" spans="1:27" ht="32">
       <c r="A51" s="7"/>
       <c r="B51" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
@@ -3038,14 +3148,14 @@
     <row r="52" spans="1:27" ht="32">
       <c r="A52" s="7"/>
       <c r="B52" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
@@ -3070,27 +3180,23 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" ht="48">
+    <row r="53" spans="1:27" ht="32">
       <c r="A53" s="7"/>
       <c r="B53" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
+        <v>189</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3109,23 +3215,21 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="1:27" ht="48">
+    <row r="54" spans="1:27" s="25" customFormat="1" ht="48">
       <c r="A54" s="7"/>
-      <c r="B54" s="7">
-        <v>52</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>61</v>
+      <c r="B54" s="7"/>
+      <c r="C54" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
+        <v>275</v>
+      </c>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -3147,20 +3251,24 @@
     <row r="55" spans="1:27" ht="48">
       <c r="A55" s="7"/>
       <c r="B55" s="7">
-        <v>53</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
+        <v>190</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -3182,14 +3290,14 @@
     <row r="56" spans="1:27" ht="48">
       <c r="A56" s="7"/>
       <c r="B56" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
@@ -3214,27 +3322,23 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:27" ht="32">
+    <row r="57" spans="1:27" ht="48">
       <c r="A57" s="7"/>
       <c r="B57" s="7">
-        <v>55</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>64</v>
+        <v>53</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
+        <v>192</v>
+      </c>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3253,17 +3357,17 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" ht="32">
+    <row r="58" spans="1:27" ht="48">
       <c r="A58" s="7"/>
       <c r="B58" s="7">
-        <v>56</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
@@ -3288,23 +3392,21 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" ht="32">
+    <row r="59" spans="1:27" s="25" customFormat="1" ht="32">
       <c r="A59" s="7"/>
-      <c r="B59" s="7">
-        <v>57</v>
-      </c>
+      <c r="B59" s="7"/>
       <c r="C59" s="8" t="s">
-        <v>66</v>
+        <v>276</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
+        <v>277</v>
+      </c>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -3326,20 +3428,24 @@
     <row r="60" spans="1:27" ht="32">
       <c r="A60" s="7"/>
       <c r="B60" s="7">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
+        <v>194</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -3358,23 +3464,23 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="1:27" ht="48">
+    <row r="61" spans="1:27" ht="32">
       <c r="A61" s="7"/>
       <c r="B61" s="7">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
+        <v>195</v>
+      </c>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -3393,23 +3499,23 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="1:27" ht="16">
+    <row r="62" spans="1:27" ht="32">
       <c r="A62" s="7"/>
       <c r="B62" s="7">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
+      <c r="E62" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -3431,24 +3537,20 @@
     <row r="63" spans="1:27" ht="32">
       <c r="A63" s="7"/>
       <c r="B63" s="7">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G63" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
+        <v>197</v>
+      </c>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3467,27 +3569,23 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="1:27" ht="32">
+    <row r="64" spans="1:27" ht="48">
       <c r="A64" s="7"/>
       <c r="B64" s="7">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G64" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
+        <v>198</v>
+      </c>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3506,27 +3604,23 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" ht="32">
+    <row r="65" spans="1:27" ht="16">
       <c r="A65" s="7"/>
       <c r="B65" s="7">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G65" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
+      <c r="E65" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3545,27 +3639,21 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="1:27" ht="32">
+    <row r="66" spans="1:27" s="25" customFormat="1" ht="32">
       <c r="A66" s="7"/>
-      <c r="B66" s="7">
-        <v>64</v>
-      </c>
+      <c r="B66" s="7"/>
       <c r="C66" s="8" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G66" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
+        <v>279</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -3584,23 +3672,27 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" ht="16">
+    <row r="67" spans="1:27" ht="32">
       <c r="A67" s="7"/>
       <c r="B67" s="7">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
+      <c r="E67" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G67" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -3619,23 +3711,27 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" ht="16">
+    <row r="68" spans="1:27" ht="32">
       <c r="A68" s="7"/>
       <c r="B68" s="7">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
+      <c r="E68" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -3654,23 +3750,27 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" ht="16">
+    <row r="69" spans="1:27" ht="32">
       <c r="A69" s="7"/>
       <c r="B69" s="7">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
+      <c r="E69" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G69" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -3692,24 +3792,24 @@
     <row r="70" spans="1:27" ht="32">
       <c r="A70" s="7"/>
       <c r="B70" s="7">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G70" s="24" t="s">
+      <c r="G70" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -3728,27 +3828,23 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="1:27" ht="32">
+    <row r="71" spans="1:27" ht="16">
       <c r="A71" s="7"/>
       <c r="B71" s="7">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G71" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
+      <c r="E71" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -3767,23 +3863,23 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="1:27" ht="32">
+    <row r="72" spans="1:27" ht="16">
       <c r="A72" s="7"/>
       <c r="B72" s="7">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D72" s="9"/>
-      <c r="E72" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
+      <c r="E72" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -3802,23 +3898,23 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="1:27" ht="32">
+    <row r="73" spans="1:27" ht="16">
       <c r="A73" s="7"/>
       <c r="B73" s="7">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
+      <c r="E73" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -3837,27 +3933,21 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="1:27" ht="48">
+    <row r="74" spans="1:27" s="25" customFormat="1" ht="32">
       <c r="A74" s="7"/>
-      <c r="B74" s="7">
-        <v>72</v>
-      </c>
+      <c r="B74" s="7"/>
       <c r="C74" s="8" t="s">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G74" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
+        <v>281</v>
+      </c>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -3876,23 +3966,27 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="1:27" ht="48">
+    <row r="75" spans="1:27" ht="32">
       <c r="A75" s="7"/>
       <c r="B75" s="7">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
+        <v>207</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G75" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -3911,23 +4005,27 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="1:27" ht="48">
+    <row r="76" spans="1:27" ht="32">
       <c r="A76" s="7"/>
       <c r="B76" s="7">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
+        <v>208</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G76" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
@@ -3946,17 +4044,17 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="1:27" ht="48">
+    <row r="77" spans="1:27" ht="32">
       <c r="A77" s="7"/>
       <c r="B77" s="7">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
@@ -3981,23 +4079,23 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" ht="16">
+    <row r="78" spans="1:27" ht="32">
       <c r="A78" s="7"/>
       <c r="B78" s="7">
-        <v>76</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>85</v>
+        <v>71</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
+      <c r="E78" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -4016,23 +4114,21 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="1:27" ht="32">
+    <row r="79" spans="1:27" s="25" customFormat="1" ht="48">
       <c r="A79" s="7"/>
-      <c r="B79" s="7">
-        <v>77</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D79" s="1"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D79" s="9"/>
       <c r="E79" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -4051,23 +4147,27 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27" ht="16">
+    <row r="80" spans="1:27" ht="48">
       <c r="A80" s="7"/>
       <c r="B80" s="7">
-        <v>78</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D80" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" s="9"/>
       <c r="E80" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
+        <v>211</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G80" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
@@ -4086,23 +4186,23 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="1:27" ht="32">
+    <row r="81" spans="1:27" ht="48">
       <c r="A81" s="7"/>
       <c r="B81" s="7">
-        <v>79</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D81" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" s="9"/>
       <c r="E81" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
+        <v>212</v>
+      </c>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
@@ -4121,23 +4221,23 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" ht="16">
+    <row r="82" spans="1:27" ht="48">
       <c r="A82" s="7"/>
       <c r="B82" s="7">
-        <v>80</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D82" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="9"/>
       <c r="E82" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
@@ -4156,23 +4256,23 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" ht="16">
+    <row r="83" spans="1:27" ht="48">
       <c r="A83" s="7"/>
       <c r="B83" s="7">
-        <v>81</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D83" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="9"/>
       <c r="E83" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
@@ -4191,23 +4291,23 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" ht="32">
+    <row r="84" spans="1:27" ht="16">
       <c r="A84" s="7"/>
       <c r="B84" s="7">
-        <v>82</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
@@ -4229,14 +4329,14 @@
     <row r="85" spans="1:27" ht="32">
       <c r="A85" s="7"/>
       <c r="B85" s="7">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="15" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -4261,17 +4361,17 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" ht="32">
+    <row r="86" spans="1:27" ht="16">
       <c r="A86" s="7"/>
       <c r="B86" s="7">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="15" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -4299,14 +4399,14 @@
     <row r="87" spans="1:27" ht="32">
       <c r="A87" s="7"/>
       <c r="B87" s="7">
-        <v>85</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>94</v>
+        <v>79</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="15" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -4331,17 +4431,17 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="1:27" ht="32">
+    <row r="88" spans="1:27" ht="16">
       <c r="A88" s="7"/>
       <c r="B88" s="7">
-        <v>86</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>95</v>
+        <v>80</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="15" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -4366,17 +4466,17 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" ht="32">
+    <row r="89" spans="1:27" ht="16">
       <c r="A89" s="7"/>
       <c r="B89" s="7">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="15" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -4404,14 +4504,14 @@
     <row r="90" spans="1:27" ht="32">
       <c r="A90" s="7"/>
       <c r="B90" s="7">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="15" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -4439,14 +4539,14 @@
     <row r="91" spans="1:27" ht="32">
       <c r="A91" s="7"/>
       <c r="B91" s="7">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D91" s="18"/>
+        <v>92</v>
+      </c>
+      <c r="D91" s="1"/>
       <c r="E91" s="15" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -4471,19 +4571,17 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" ht="57">
+    <row r="92" spans="1:27" ht="32">
       <c r="A92" s="7"/>
       <c r="B92" s="7">
-        <v>90</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>100</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D92" s="1"/>
       <c r="E92" s="15" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -4508,19 +4606,17 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="1:27" ht="57">
+    <row r="93" spans="1:27" ht="32">
       <c r="A93" s="7"/>
       <c r="B93" s="7">
-        <v>91</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D93" s="18" t="s">
-        <v>102</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" s="1"/>
       <c r="E93" s="15" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -4545,19 +4641,17 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="1:27" ht="57">
+    <row r="94" spans="1:27" ht="32">
       <c r="A94" s="7"/>
       <c r="B94" s="7">
-        <v>92</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" s="1"/>
       <c r="E94" s="15" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -4582,19 +4676,17 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="1:27" ht="57">
+    <row r="95" spans="1:27" ht="32">
       <c r="A95" s="7"/>
       <c r="B95" s="7">
-        <v>93</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>102</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95" s="1"/>
       <c r="E95" s="15" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -4619,19 +4711,17 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="1:27" ht="57">
+    <row r="96" spans="1:27" ht="32">
       <c r="A96" s="7"/>
       <c r="B96" s="7">
-        <v>94</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96" s="1"/>
       <c r="E96" s="15" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -4659,14 +4749,14 @@
     <row r="97" spans="1:27" ht="32">
       <c r="A97" s="7"/>
       <c r="B97" s="7">
-        <v>95</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D97" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D97" s="18"/>
       <c r="E97" s="15" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -4691,17 +4781,19 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98" spans="1:27" ht="32">
+    <row r="98" spans="1:27" ht="57">
       <c r="A98" s="7"/>
       <c r="B98" s="7">
-        <v>96</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D98" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>100</v>
+      </c>
       <c r="E98" s="15" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -4726,17 +4818,19 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
     </row>
-    <row r="99" spans="1:27" ht="32">
+    <row r="99" spans="1:27" ht="57">
       <c r="A99" s="7"/>
       <c r="B99" s="7">
-        <v>97</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D99" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>102</v>
+      </c>
       <c r="E99" s="15" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -4761,17 +4855,19 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100" spans="1:27" ht="32">
+    <row r="100" spans="1:27" ht="57">
       <c r="A100" s="7"/>
       <c r="B100" s="7">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D100" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>104</v>
+      </c>
       <c r="E100" s="15" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -4796,17 +4892,19 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
     </row>
-    <row r="101" spans="1:27" ht="32">
+    <row r="101" spans="1:27" ht="57">
       <c r="A101" s="7"/>
       <c r="B101" s="7">
-        <v>99</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D101" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>102</v>
+      </c>
       <c r="E101" s="15" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -4831,17 +4929,19 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
     </row>
-    <row r="102" spans="1:27" ht="32">
+    <row r="102" spans="1:27" ht="57">
       <c r="A102" s="7"/>
       <c r="B102" s="7">
-        <v>100</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D102" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>104</v>
+      </c>
       <c r="E102" s="15" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -4866,17 +4966,15 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
     </row>
-    <row r="103" spans="1:27" ht="32">
+    <row r="103" spans="1:27" s="25" customFormat="1" ht="32">
       <c r="A103" s="7"/>
-      <c r="B103" s="7">
-        <v>101</v>
-      </c>
+      <c r="B103" s="7"/>
       <c r="C103" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D103" s="1"/>
+        <v>284</v>
+      </c>
+      <c r="D103" s="20"/>
       <c r="E103" s="15" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -4904,14 +5002,14 @@
     <row r="104" spans="1:27" ht="32">
       <c r="A104" s="7"/>
       <c r="B104" s="7">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="15" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -4939,14 +5037,14 @@
     <row r="105" spans="1:27" ht="32">
       <c r="A105" s="7"/>
       <c r="B105" s="7">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="15" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -4974,14 +5072,14 @@
     <row r="106" spans="1:27" ht="32">
       <c r="A106" s="7"/>
       <c r="B106" s="7">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="15" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -5009,14 +5107,14 @@
     <row r="107" spans="1:27" ht="32">
       <c r="A107" s="7"/>
       <c r="B107" s="7">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="15" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -5041,17 +5139,15 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
     </row>
-    <row r="108" spans="1:27" ht="32">
+    <row r="108" spans="1:27" s="25" customFormat="1" ht="32">
       <c r="A108" s="7"/>
-      <c r="B108" s="7">
-        <v>106</v>
-      </c>
+      <c r="B108" s="7"/>
       <c r="C108" s="20" t="s">
-        <v>118</v>
+        <v>286</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="15" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -5079,14 +5175,14 @@
     <row r="109" spans="1:27" ht="32">
       <c r="A109" s="7"/>
       <c r="B109" s="7">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="15" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -5114,14 +5210,14 @@
     <row r="110" spans="1:27" ht="32">
       <c r="A110" s="7"/>
       <c r="B110" s="7">
-        <v>108</v>
-      </c>
-      <c r="C110" s="19" t="s">
-        <v>120</v>
+        <v>100</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="15" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -5149,14 +5245,14 @@
     <row r="111" spans="1:27" ht="32">
       <c r="A111" s="7"/>
       <c r="B111" s="7">
-        <v>109</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>121</v>
+        <v>101</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="15" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -5184,14 +5280,14 @@
     <row r="112" spans="1:27" ht="32">
       <c r="A112" s="7"/>
       <c r="B112" s="7">
-        <v>110</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>122</v>
+        <v>102</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="15" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -5216,17 +5312,15 @@
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
     </row>
-    <row r="113" spans="1:27" ht="16">
+    <row r="113" spans="1:27" s="25" customFormat="1" ht="32">
       <c r="A113" s="7"/>
-      <c r="B113" s="7">
-        <v>111</v>
-      </c>
-      <c r="C113" s="21" t="s">
-        <v>123</v>
+      <c r="B113" s="7"/>
+      <c r="C113" s="20" t="s">
+        <v>288</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="15" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -5254,14 +5348,14 @@
     <row r="114" spans="1:27" ht="32">
       <c r="A114" s="7"/>
       <c r="B114" s="7">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="15" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -5289,14 +5383,14 @@
     <row r="115" spans="1:27" ht="32">
       <c r="A115" s="7"/>
       <c r="B115" s="7">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="15" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -5324,14 +5418,14 @@
     <row r="116" spans="1:27" ht="32">
       <c r="A116" s="7"/>
       <c r="B116" s="7">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="15" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -5359,14 +5453,14 @@
     <row r="117" spans="1:27" ht="32">
       <c r="A117" s="7"/>
       <c r="B117" s="7">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="15" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -5391,17 +5485,15 @@
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
     </row>
-    <row r="118" spans="1:27" ht="32">
+    <row r="118" spans="1:27" s="25" customFormat="1" ht="32">
       <c r="A118" s="7"/>
-      <c r="B118" s="7">
-        <v>116</v>
-      </c>
+      <c r="B118" s="7"/>
       <c r="C118" s="20" t="s">
-        <v>128</v>
+        <v>290</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="15" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -5429,14 +5521,14 @@
     <row r="119" spans="1:27" ht="32">
       <c r="A119" s="7"/>
       <c r="B119" s="7">
-        <v>117</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>129</v>
+        <v>107</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="15" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -5464,14 +5556,14 @@
     <row r="120" spans="1:27" ht="32">
       <c r="A120" s="7"/>
       <c r="B120" s="7">
-        <v>118</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>130</v>
+        <v>108</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="15" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -5499,14 +5591,14 @@
     <row r="121" spans="1:27" ht="32">
       <c r="A121" s="7"/>
       <c r="B121" s="7">
-        <v>119</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>131</v>
+        <v>109</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="15" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -5534,14 +5626,14 @@
     <row r="122" spans="1:27" ht="32">
       <c r="A122" s="7"/>
       <c r="B122" s="7">
-        <v>120</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>132</v>
+        <v>110</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="15" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -5566,17 +5658,17 @@
       <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
     </row>
-    <row r="123" spans="1:27" ht="32">
+    <row r="123" spans="1:27" ht="16">
       <c r="A123" s="7"/>
       <c r="B123" s="7">
-        <v>121</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>133</v>
+        <v>111</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="15" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -5601,17 +5693,15 @@
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
     </row>
-    <row r="124" spans="1:27" ht="32">
+    <row r="124" spans="1:27" s="25" customFormat="1" ht="32">
       <c r="A124" s="7"/>
-      <c r="B124" s="7">
-        <v>122</v>
-      </c>
+      <c r="B124" s="7"/>
       <c r="C124" s="20" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="15" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -5639,14 +5729,14 @@
     <row r="125" spans="1:27" ht="32">
       <c r="A125" s="7"/>
       <c r="B125" s="7">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="15" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -5674,14 +5764,14 @@
     <row r="126" spans="1:27" ht="32">
       <c r="A126" s="7"/>
       <c r="B126" s="7">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="15" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -5709,14 +5799,14 @@
     <row r="127" spans="1:27" ht="32">
       <c r="A127" s="7"/>
       <c r="B127" s="7">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="15" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -5741,17 +5831,17 @@
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
     </row>
-    <row r="128" spans="1:27" ht="32">
+    <row r="128" spans="1:27" ht="16">
       <c r="A128" s="7"/>
       <c r="B128" s="7">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="15" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -5776,17 +5866,15 @@
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
     </row>
-    <row r="129" spans="1:27" ht="32">
+    <row r="129" spans="1:27" s="25" customFormat="1" ht="32">
       <c r="A129" s="7"/>
-      <c r="B129" s="7">
-        <v>127</v>
-      </c>
+      <c r="B129" s="7"/>
       <c r="C129" s="20" t="s">
-        <v>139</v>
+        <v>294</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="15" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -5811,17 +5899,17 @@
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
     </row>
-    <row r="130" spans="1:27" ht="16">
+    <row r="130" spans="1:27" ht="32">
       <c r="A130" s="7"/>
       <c r="B130" s="7">
+        <v>116</v>
+      </c>
+      <c r="C130" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="C130" s="22" t="s">
-        <v>140</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="15" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -5846,17 +5934,17 @@
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
     </row>
-    <row r="131" spans="1:27" ht="16">
+    <row r="131" spans="1:27" ht="32">
       <c r="A131" s="7"/>
       <c r="B131" s="7">
+        <v>117</v>
+      </c>
+      <c r="C131" s="20" t="s">
         <v>129</v>
-      </c>
-      <c r="C131" s="20" t="s">
-        <v>141</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="15" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -5881,12 +5969,18 @@
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
     </row>
-    <row r="132" spans="1:27" ht="13">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="2"/>
+    <row r="132" spans="1:27" ht="32">
+      <c r="A132" s="7"/>
+      <c r="B132" s="7">
+        <v>118</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
+      <c r="E132" s="15" t="s">
+        <v>256</v>
+      </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -5910,12 +6004,18 @@
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
     </row>
-    <row r="133" spans="1:27" ht="13">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="2"/>
+    <row r="133" spans="1:27" ht="32">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7">
+        <v>119</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
+      <c r="E133" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -5939,12 +6039,16 @@
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
     </row>
-    <row r="134" spans="1:27" ht="13">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="2"/>
+    <row r="134" spans="1:27" s="25" customFormat="1" ht="32">
+      <c r="A134" s="7"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="20" t="s">
+        <v>296</v>
+      </c>
       <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
+      <c r="E134" s="15" t="s">
+        <v>297</v>
+      </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -5968,12 +6072,18 @@
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
     </row>
-    <row r="135" spans="1:27" ht="13">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="2"/>
+    <row r="135" spans="1:27" ht="32">
+      <c r="A135" s="7"/>
+      <c r="B135" s="7">
+        <v>120</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>132</v>
+      </c>
       <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
+      <c r="E135" s="15" t="s">
+        <v>258</v>
+      </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -5997,12 +6107,18 @@
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
     </row>
-    <row r="136" spans="1:27" ht="13">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="2"/>
+    <row r="136" spans="1:27" ht="32">
+      <c r="A136" s="7"/>
+      <c r="B136" s="7">
+        <v>121</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>133</v>
+      </c>
       <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
+      <c r="E136" s="15" t="s">
+        <v>259</v>
+      </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -6026,12 +6142,18 @@
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
     </row>
-    <row r="137" spans="1:27" ht="13">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="2"/>
+    <row r="137" spans="1:27" ht="32">
+      <c r="A137" s="7"/>
+      <c r="B137" s="7">
+        <v>122</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>134</v>
+      </c>
       <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
+      <c r="E137" s="15" t="s">
+        <v>260</v>
+      </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -6055,12 +6177,18 @@
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
     </row>
-    <row r="138" spans="1:27" ht="13">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="2"/>
+    <row r="138" spans="1:27" ht="32">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7">
+        <v>123</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>135</v>
+      </c>
       <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
+      <c r="E138" s="15" t="s">
+        <v>261</v>
+      </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -6084,12 +6212,16 @@
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
     </row>
-    <row r="139" spans="1:27" ht="13">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="2"/>
+    <row r="139" spans="1:27" s="25" customFormat="1" ht="32">
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="20" t="s">
+        <v>298</v>
+      </c>
       <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
+      <c r="E139" s="15" t="s">
+        <v>299</v>
+      </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -6113,12 +6245,18 @@
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
     </row>
-    <row r="140" spans="1:27" ht="13">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="2"/>
+    <row r="140" spans="1:27" ht="32">
+      <c r="A140" s="7"/>
+      <c r="B140" s="7">
+        <v>124</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>136</v>
+      </c>
       <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
+      <c r="E140" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -6142,12 +6280,18 @@
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
     </row>
-    <row r="141" spans="1:27" ht="13">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="2"/>
+    <row r="141" spans="1:27" ht="32">
+      <c r="A141" s="7"/>
+      <c r="B141" s="7">
+        <v>125</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>137</v>
+      </c>
       <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
+      <c r="E141" s="15" t="s">
+        <v>263</v>
+      </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -6171,12 +6315,18 @@
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
     </row>
-    <row r="142" spans="1:27" ht="13">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="2"/>
+    <row r="142" spans="1:27" ht="32">
+      <c r="A142" s="7"/>
+      <c r="B142" s="7">
+        <v>126</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
+      <c r="E142" s="15" t="s">
+        <v>264</v>
+      </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -6200,12 +6350,18 @@
       <c r="Z142" s="1"/>
       <c r="AA142" s="1"/>
     </row>
-    <row r="143" spans="1:27" ht="13">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="2"/>
+    <row r="143" spans="1:27" ht="32">
+      <c r="A143" s="7"/>
+      <c r="B143" s="7">
+        <v>127</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
+      <c r="E143" s="15" t="s">
+        <v>265</v>
+      </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -6229,12 +6385,18 @@
       <c r="Z143" s="1"/>
       <c r="AA143" s="1"/>
     </row>
-    <row r="144" spans="1:27" ht="13">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="2"/>
+    <row r="144" spans="1:27" ht="16">
+      <c r="A144" s="7"/>
+      <c r="B144" s="7">
+        <v>128</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>140</v>
+      </c>
       <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
+      <c r="E144" s="15" t="s">
+        <v>205</v>
+      </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -6258,12 +6420,18 @@
       <c r="Z144" s="1"/>
       <c r="AA144" s="1"/>
     </row>
-    <row r="145" spans="1:27" ht="13">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="2"/>
+    <row r="145" spans="1:27" ht="16">
+      <c r="A145" s="7"/>
+      <c r="B145" s="7">
+        <v>129</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>141</v>
+      </c>
       <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
+      <c r="E145" s="15" t="s">
+        <v>266</v>
+      </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -6287,12 +6455,16 @@
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
     </row>
-    <row r="146" spans="1:27" ht="13">
+    <row r="146" spans="1:27" ht="16">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
-      <c r="C146" s="2"/>
+      <c r="C146" s="28" t="s">
+        <v>300</v>
+      </c>
       <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
+      <c r="E146" s="15" t="s">
+        <v>303</v>
+      </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -6316,12 +6488,16 @@
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
     </row>
-    <row r="147" spans="1:27" ht="13">
+    <row r="147" spans="1:27" ht="16">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
-      <c r="C147" s="2"/>
+      <c r="C147" s="28" t="s">
+        <v>301</v>
+      </c>
       <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
+      <c r="E147" s="15" t="s">
+        <v>304</v>
+      </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
@@ -6345,12 +6521,16 @@
       <c r="Z147" s="1"/>
       <c r="AA147" s="1"/>
     </row>
-    <row r="148" spans="1:27" ht="13">
+    <row r="148" spans="1:27" ht="14">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
-      <c r="C148" s="2"/>
+      <c r="C148" s="28" t="s">
+        <v>302</v>
+      </c>
       <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
+      <c r="E148" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -6374,12 +6554,16 @@
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
     </row>
-    <row r="149" spans="1:27" ht="13">
+    <row r="149" spans="1:27" ht="13" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
-      <c r="C149" s="2"/>
+      <c r="C149" s="28" t="s">
+        <v>306</v>
+      </c>
       <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
+      <c r="E149" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -30734,19 +30918,425 @@
       <c r="Z988" s="1"/>
       <c r="AA988" s="1"/>
     </row>
+    <row r="989" spans="1:27" ht="13">
+      <c r="A989" s="1"/>
+      <c r="B989" s="1"/>
+      <c r="C989" s="2"/>
+      <c r="D989" s="1"/>
+      <c r="E989" s="1"/>
+      <c r="F989" s="1"/>
+      <c r="G989" s="1"/>
+      <c r="H989" s="1"/>
+      <c r="I989" s="1"/>
+      <c r="J989" s="1"/>
+      <c r="K989" s="1"/>
+      <c r="L989" s="1"/>
+      <c r="M989" s="1"/>
+      <c r="N989" s="1"/>
+      <c r="O989" s="1"/>
+      <c r="P989" s="1"/>
+      <c r="Q989" s="1"/>
+      <c r="R989" s="1"/>
+      <c r="S989" s="1"/>
+      <c r="T989" s="1"/>
+      <c r="U989" s="1"/>
+      <c r="V989" s="1"/>
+      <c r="W989" s="1"/>
+      <c r="X989" s="1"/>
+      <c r="Y989" s="1"/>
+      <c r="Z989" s="1"/>
+      <c r="AA989" s="1"/>
+    </row>
+    <row r="990" spans="1:27" ht="13">
+      <c r="A990" s="1"/>
+      <c r="B990" s="1"/>
+      <c r="C990" s="2"/>
+      <c r="D990" s="1"/>
+      <c r="E990" s="1"/>
+      <c r="F990" s="1"/>
+      <c r="G990" s="1"/>
+      <c r="H990" s="1"/>
+      <c r="I990" s="1"/>
+      <c r="J990" s="1"/>
+      <c r="K990" s="1"/>
+      <c r="L990" s="1"/>
+      <c r="M990" s="1"/>
+      <c r="N990" s="1"/>
+      <c r="O990" s="1"/>
+      <c r="P990" s="1"/>
+      <c r="Q990" s="1"/>
+      <c r="R990" s="1"/>
+      <c r="S990" s="1"/>
+      <c r="T990" s="1"/>
+      <c r="U990" s="1"/>
+      <c r="V990" s="1"/>
+      <c r="W990" s="1"/>
+      <c r="X990" s="1"/>
+      <c r="Y990" s="1"/>
+      <c r="Z990" s="1"/>
+      <c r="AA990" s="1"/>
+    </row>
+    <row r="991" spans="1:27" ht="13">
+      <c r="A991" s="1"/>
+      <c r="B991" s="1"/>
+      <c r="C991" s="2"/>
+      <c r="D991" s="1"/>
+      <c r="E991" s="1"/>
+      <c r="F991" s="1"/>
+      <c r="G991" s="1"/>
+      <c r="H991" s="1"/>
+      <c r="I991" s="1"/>
+      <c r="J991" s="1"/>
+      <c r="K991" s="1"/>
+      <c r="L991" s="1"/>
+      <c r="M991" s="1"/>
+      <c r="N991" s="1"/>
+      <c r="O991" s="1"/>
+      <c r="P991" s="1"/>
+      <c r="Q991" s="1"/>
+      <c r="R991" s="1"/>
+      <c r="S991" s="1"/>
+      <c r="T991" s="1"/>
+      <c r="U991" s="1"/>
+      <c r="V991" s="1"/>
+      <c r="W991" s="1"/>
+      <c r="X991" s="1"/>
+      <c r="Y991" s="1"/>
+      <c r="Z991" s="1"/>
+      <c r="AA991" s="1"/>
+    </row>
+    <row r="992" spans="1:27" ht="13">
+      <c r="A992" s="1"/>
+      <c r="B992" s="1"/>
+      <c r="C992" s="2"/>
+      <c r="D992" s="1"/>
+      <c r="E992" s="1"/>
+      <c r="F992" s="1"/>
+      <c r="G992" s="1"/>
+      <c r="H992" s="1"/>
+      <c r="I992" s="1"/>
+      <c r="J992" s="1"/>
+      <c r="K992" s="1"/>
+      <c r="L992" s="1"/>
+      <c r="M992" s="1"/>
+      <c r="N992" s="1"/>
+      <c r="O992" s="1"/>
+      <c r="P992" s="1"/>
+      <c r="Q992" s="1"/>
+      <c r="R992" s="1"/>
+      <c r="S992" s="1"/>
+      <c r="T992" s="1"/>
+      <c r="U992" s="1"/>
+      <c r="V992" s="1"/>
+      <c r="W992" s="1"/>
+      <c r="X992" s="1"/>
+      <c r="Y992" s="1"/>
+      <c r="Z992" s="1"/>
+      <c r="AA992" s="1"/>
+    </row>
+    <row r="993" spans="1:27" ht="13">
+      <c r="A993" s="1"/>
+      <c r="B993" s="1"/>
+      <c r="C993" s="2"/>
+      <c r="D993" s="1"/>
+      <c r="E993" s="1"/>
+      <c r="F993" s="1"/>
+      <c r="G993" s="1"/>
+      <c r="H993" s="1"/>
+      <c r="I993" s="1"/>
+      <c r="J993" s="1"/>
+      <c r="K993" s="1"/>
+      <c r="L993" s="1"/>
+      <c r="M993" s="1"/>
+      <c r="N993" s="1"/>
+      <c r="O993" s="1"/>
+      <c r="P993" s="1"/>
+      <c r="Q993" s="1"/>
+      <c r="R993" s="1"/>
+      <c r="S993" s="1"/>
+      <c r="T993" s="1"/>
+      <c r="U993" s="1"/>
+      <c r="V993" s="1"/>
+      <c r="W993" s="1"/>
+      <c r="X993" s="1"/>
+      <c r="Y993" s="1"/>
+      <c r="Z993" s="1"/>
+      <c r="AA993" s="1"/>
+    </row>
+    <row r="994" spans="1:27" ht="13">
+      <c r="A994" s="1"/>
+      <c r="B994" s="1"/>
+      <c r="C994" s="2"/>
+      <c r="D994" s="1"/>
+      <c r="E994" s="1"/>
+      <c r="F994" s="1"/>
+      <c r="G994" s="1"/>
+      <c r="H994" s="1"/>
+      <c r="I994" s="1"/>
+      <c r="J994" s="1"/>
+      <c r="K994" s="1"/>
+      <c r="L994" s="1"/>
+      <c r="M994" s="1"/>
+      <c r="N994" s="1"/>
+      <c r="O994" s="1"/>
+      <c r="P994" s="1"/>
+      <c r="Q994" s="1"/>
+      <c r="R994" s="1"/>
+      <c r="S994" s="1"/>
+      <c r="T994" s="1"/>
+      <c r="U994" s="1"/>
+      <c r="V994" s="1"/>
+      <c r="W994" s="1"/>
+      <c r="X994" s="1"/>
+      <c r="Y994" s="1"/>
+      <c r="Z994" s="1"/>
+      <c r="AA994" s="1"/>
+    </row>
+    <row r="995" spans="1:27" ht="13">
+      <c r="A995" s="1"/>
+      <c r="B995" s="1"/>
+      <c r="C995" s="2"/>
+      <c r="D995" s="1"/>
+      <c r="E995" s="1"/>
+      <c r="F995" s="1"/>
+      <c r="G995" s="1"/>
+      <c r="H995" s="1"/>
+      <c r="I995" s="1"/>
+      <c r="J995" s="1"/>
+      <c r="K995" s="1"/>
+      <c r="L995" s="1"/>
+      <c r="M995" s="1"/>
+      <c r="N995" s="1"/>
+      <c r="O995" s="1"/>
+      <c r="P995" s="1"/>
+      <c r="Q995" s="1"/>
+      <c r="R995" s="1"/>
+      <c r="S995" s="1"/>
+      <c r="T995" s="1"/>
+      <c r="U995" s="1"/>
+      <c r="V995" s="1"/>
+      <c r="W995" s="1"/>
+      <c r="X995" s="1"/>
+      <c r="Y995" s="1"/>
+      <c r="Z995" s="1"/>
+      <c r="AA995" s="1"/>
+    </row>
+    <row r="996" spans="1:27" ht="13">
+      <c r="A996" s="1"/>
+      <c r="B996" s="1"/>
+      <c r="C996" s="2"/>
+      <c r="D996" s="1"/>
+      <c r="E996" s="1"/>
+      <c r="F996" s="1"/>
+      <c r="G996" s="1"/>
+      <c r="H996" s="1"/>
+      <c r="I996" s="1"/>
+      <c r="J996" s="1"/>
+      <c r="K996" s="1"/>
+      <c r="L996" s="1"/>
+      <c r="M996" s="1"/>
+      <c r="N996" s="1"/>
+      <c r="O996" s="1"/>
+      <c r="P996" s="1"/>
+      <c r="Q996" s="1"/>
+      <c r="R996" s="1"/>
+      <c r="S996" s="1"/>
+      <c r="T996" s="1"/>
+      <c r="U996" s="1"/>
+      <c r="V996" s="1"/>
+      <c r="W996" s="1"/>
+      <c r="X996" s="1"/>
+      <c r="Y996" s="1"/>
+      <c r="Z996" s="1"/>
+      <c r="AA996" s="1"/>
+    </row>
+    <row r="997" spans="1:27" ht="13">
+      <c r="A997" s="1"/>
+      <c r="B997" s="1"/>
+      <c r="C997" s="2"/>
+      <c r="D997" s="1"/>
+      <c r="E997" s="1"/>
+      <c r="F997" s="1"/>
+      <c r="G997" s="1"/>
+      <c r="H997" s="1"/>
+      <c r="I997" s="1"/>
+      <c r="J997" s="1"/>
+      <c r="K997" s="1"/>
+      <c r="L997" s="1"/>
+      <c r="M997" s="1"/>
+      <c r="N997" s="1"/>
+      <c r="O997" s="1"/>
+      <c r="P997" s="1"/>
+      <c r="Q997" s="1"/>
+      <c r="R997" s="1"/>
+      <c r="S997" s="1"/>
+      <c r="T997" s="1"/>
+      <c r="U997" s="1"/>
+      <c r="V997" s="1"/>
+      <c r="W997" s="1"/>
+      <c r="X997" s="1"/>
+      <c r="Y997" s="1"/>
+      <c r="Z997" s="1"/>
+      <c r="AA997" s="1"/>
+    </row>
+    <row r="998" spans="1:27" ht="13">
+      <c r="A998" s="1"/>
+      <c r="B998" s="1"/>
+      <c r="C998" s="2"/>
+      <c r="D998" s="1"/>
+      <c r="E998" s="1"/>
+      <c r="F998" s="1"/>
+      <c r="G998" s="1"/>
+      <c r="H998" s="1"/>
+      <c r="I998" s="1"/>
+      <c r="J998" s="1"/>
+      <c r="K998" s="1"/>
+      <c r="L998" s="1"/>
+      <c r="M998" s="1"/>
+      <c r="N998" s="1"/>
+      <c r="O998" s="1"/>
+      <c r="P998" s="1"/>
+      <c r="Q998" s="1"/>
+      <c r="R998" s="1"/>
+      <c r="S998" s="1"/>
+      <c r="T998" s="1"/>
+      <c r="U998" s="1"/>
+      <c r="V998" s="1"/>
+      <c r="W998" s="1"/>
+      <c r="X998" s="1"/>
+      <c r="Y998" s="1"/>
+      <c r="Z998" s="1"/>
+      <c r="AA998" s="1"/>
+    </row>
+    <row r="999" spans="1:27" ht="13">
+      <c r="A999" s="1"/>
+      <c r="B999" s="1"/>
+      <c r="C999" s="2"/>
+      <c r="D999" s="1"/>
+      <c r="E999" s="1"/>
+      <c r="F999" s="1"/>
+      <c r="G999" s="1"/>
+      <c r="H999" s="1"/>
+      <c r="I999" s="1"/>
+      <c r="J999" s="1"/>
+      <c r="K999" s="1"/>
+      <c r="L999" s="1"/>
+      <c r="M999" s="1"/>
+      <c r="N999" s="1"/>
+      <c r="O999" s="1"/>
+      <c r="P999" s="1"/>
+      <c r="Q999" s="1"/>
+      <c r="R999" s="1"/>
+      <c r="S999" s="1"/>
+      <c r="T999" s="1"/>
+      <c r="U999" s="1"/>
+      <c r="V999" s="1"/>
+      <c r="W999" s="1"/>
+      <c r="X999" s="1"/>
+      <c r="Y999" s="1"/>
+      <c r="Z999" s="1"/>
+      <c r="AA999" s="1"/>
+    </row>
+    <row r="1000" spans="1:27" ht="13">
+      <c r="A1000" s="1"/>
+      <c r="B1000" s="1"/>
+      <c r="C1000" s="2"/>
+      <c r="D1000" s="1"/>
+      <c r="E1000" s="1"/>
+      <c r="F1000" s="1"/>
+      <c r="G1000" s="1"/>
+      <c r="H1000" s="1"/>
+      <c r="I1000" s="1"/>
+      <c r="J1000" s="1"/>
+      <c r="K1000" s="1"/>
+      <c r="L1000" s="1"/>
+      <c r="M1000" s="1"/>
+      <c r="N1000" s="1"/>
+      <c r="O1000" s="1"/>
+      <c r="P1000" s="1"/>
+      <c r="Q1000" s="1"/>
+      <c r="R1000" s="1"/>
+      <c r="S1000" s="1"/>
+      <c r="T1000" s="1"/>
+      <c r="U1000" s="1"/>
+      <c r="V1000" s="1"/>
+      <c r="W1000" s="1"/>
+      <c r="X1000" s="1"/>
+      <c r="Y1000" s="1"/>
+      <c r="Z1000" s="1"/>
+      <c r="AA1000" s="1"/>
+    </row>
+    <row r="1001" spans="1:27" ht="13">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="1"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="1"/>
+      <c r="E1001" s="1"/>
+      <c r="F1001" s="1"/>
+      <c r="G1001" s="1"/>
+      <c r="H1001" s="1"/>
+      <c r="I1001" s="1"/>
+      <c r="J1001" s="1"/>
+      <c r="K1001" s="1"/>
+      <c r="L1001" s="1"/>
+      <c r="M1001" s="1"/>
+      <c r="N1001" s="1"/>
+      <c r="O1001" s="1"/>
+      <c r="P1001" s="1"/>
+      <c r="Q1001" s="1"/>
+      <c r="R1001" s="1"/>
+      <c r="S1001" s="1"/>
+      <c r="T1001" s="1"/>
+      <c r="U1001" s="1"/>
+      <c r="V1001" s="1"/>
+      <c r="W1001" s="1"/>
+      <c r="X1001" s="1"/>
+      <c r="Y1001" s="1"/>
+      <c r="Z1001" s="1"/>
+      <c r="AA1001" s="1"/>
+    </row>
+    <row r="1002" spans="1:27" ht="13">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="1"/>
+      <c r="E1002" s="1"/>
+      <c r="F1002" s="1"/>
+      <c r="G1002" s="1"/>
+      <c r="H1002" s="1"/>
+      <c r="I1002" s="1"/>
+      <c r="J1002" s="1"/>
+      <c r="K1002" s="1"/>
+      <c r="L1002" s="1"/>
+      <c r="M1002" s="1"/>
+      <c r="N1002" s="1"/>
+      <c r="O1002" s="1"/>
+      <c r="P1002" s="1"/>
+      <c r="Q1002" s="1"/>
+      <c r="R1002" s="1"/>
+      <c r="S1002" s="1"/>
+      <c r="T1002" s="1"/>
+      <c r="U1002" s="1"/>
+      <c r="V1002" s="1"/>
+      <c r="W1002" s="1"/>
+      <c r="X1002" s="1"/>
+      <c r="Y1002" s="1"/>
+      <c r="Z1002" s="1"/>
+      <c r="AA1002" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="G69:J69"/>
     <mergeCell ref="G70:J70"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="G67:J67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
